--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,216 +437,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Locator</t>
+          <t>(Date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>item_code</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>qty</t>
+          <t>‘Assigned</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>file</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DFG.EA.01.06A..</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>015766</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DFG.EA.01.06A..</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>027771</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DFG.EA.01.06A..</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>047544</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DFG.EA.01.06A..</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>059365</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DFG.EA.01.06A..</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>062891</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DFG.EA.01.06A..</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>065394</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DFG.EA.01.06A..</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>089975</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
         </is>
       </c>
     </row>
@@ -661,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,6 +482,34 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/06/2023 First draft AS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/06/2023 Added ‘Out of Scope’, ‘Pre-requisites’ AS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/06/2023 Added ‘About the Company’ AS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08/06/2023 Edited scope details AS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,189 +464,1026 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DFG.EA.01.06A..</t>
+          <t>WIP.O.0.0..</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>015766</t>
+          <t>005-1565-00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>lane2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DFG.EA.01.06A..</t>
+          <t>WIP.0.0.0..</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>027771</t>
+          <t>005-1566-00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>lane2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DFG.EA.01.06A..</t>
+          <t>WIP.0.0.0..</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>047544</t>
+          <t>005-1567-00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>lane2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DFG.EA.01.06A..</t>
+          <t>WIP.0.0.0..,</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>059365</t>
+          <t>005-1569-00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>lane2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DFG.EA.01.06A..</t>
+          <t>WIP.0.0.0..</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>062891</t>
+          <t>005-1569-00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>lane2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DFG.EA.01.06A..</t>
+          <t>WIP.0.0.0..</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>065394</t>
+          <t>005-1570-00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>lane2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DFG.EA.01.06A..</t>
+          <t>WIP.0.0.0..</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>089975</t>
+          <t>005-1571-00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>lane2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>new_images\MicrosoftTeams-image (8).png</t>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005-1592-00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005-1592-00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005-1592-01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005-1594-00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005-1607-00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005-1607-01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005-1607-02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005-1607-02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005-1608-00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005-1620-01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005-1620-01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005-1712-01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005-1712-03</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>lane2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (10).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005-1719-00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005-1824-00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005-1824-01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005-1825-00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005-1825-00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005-1869-00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005-1875-00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005-1907-01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005-1907-05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005-1983-02</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005-1988-00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005-1993-00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005-1996-00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005-1999-00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005-1999-01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005-2022-00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0..</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005-2022-01</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WIP.0O.0.0..</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005-2023-00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>lane3</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>new_images\MicrosoftTeams-image (11).png</t>
         </is>
       </c>
     </row>
@@ -661,7 +1498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,6 +1513,20 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0.. lane3 .  005-1868-00 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WIP.0.0.0.. lane3 ~  005-1974-00 15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
